--- a/pred_ohlcv/54_21/2020-01-13 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 FNB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>457442.8380773334</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>486014.4812773334</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>486014.4812773334</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>484337.9518773334</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>484337.9518773334</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>485069.9518773334</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>485246.9518773334</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>484046.9518773334</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>483602.9518773334</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>483772.9518773334</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>483772.9518773334</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-4139219.196822667</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-5575620.281722667</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-5574493.281722667</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-5576166.281722667</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-5576166.281722667</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-5577366.281722667</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-5577366.281722667</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-5269996.881322667</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-5269819.881322667</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-3418335.131822667</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-3418502.917122667</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-3418335.131822667</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-3170345.839022667</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-3187845.839022667</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-2870784.049222667</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-2870784.049222667</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-3126447.600522667</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-3118682.922822667</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-3118682.922822667</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-3118682.922822667</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-3118682.922822667</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-3636663.725122667</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-3775924.725122667</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-3763948.265922667</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-3763948.265922667</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-3787822.582922666</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-3200802.105022667</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-3203024.105022667</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-3203024.105022667</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-3203024.105022667</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-3202359.498622667</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-3202359.498622667</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-3202359.498622667</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-3202536.498622667</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-3202758.498622667</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-3161320.278022666</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-3181545.076322666</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-3207209.839422666</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-3981905.329522668</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-3984272.329522668</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-3982036.329522668</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-3982036.329522668</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-3982036.329522668</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-3982036.329522668</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-3982516.329522668</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-3982166.329522668</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-3983454.329522668</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-3990376.329522668</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-3990376.329522668</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-4050027.814122668</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-18544487.05543087</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-18544487.05543087</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-18544487.05543087</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-18544310.05543087</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-18544560.05543087</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-18545004.05543087</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-18546615.38403087</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-18582449.14813087</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-18603926.53013087</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-18603749.53013087</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-18603572.53013087</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-18603749.53013087</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-18625315.57713087</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-18625315.57713087</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-18625315.57713087</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-18725315.57713087</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-18775492.57713087</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-18781669.57713087</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-18781669.57713087</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-19970608.41893087</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-20313327.70383087</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-20243985.63643087</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-19647815.53023086</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-19747815.53023086</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-19040729.42103086</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-19156378.58423086</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-19156378.58423086</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-19546940.84374197</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-19893433.90354197</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-19872338.90564197</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-20352834.63664197</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-20352657.63664197</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-20352657.63664197</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-20352657.63664197</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-20119154.35594197</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-20118954.35594197</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-20117977.35594197</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-20117977.35594197</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-20118000.35594197</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-20120444.35594197</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-20122936.42264197</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-20122936.42264197</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-20124047.42264197</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-20122847.42264197</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-20127617.20064197</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-20142617.20064197</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-20142147.20064197</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-20140947.20064197</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-20295432.43544197</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-20297876.43544197</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-19379685.55394197</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-19379685.55394197</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-19379685.55394197</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-19387751.92944197</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-19271502.50834197</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-13 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 FNB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>457442.8380773334</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>486014.4812773334</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>486014.4812773334</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>484337.9518773334</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>484337.9518773334</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>485069.9518773334</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>485246.9518773334</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>484046.9518773334</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>483602.9518773334</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-4139219.196822667</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-5575620.281722667</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-5269996.881322667</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-5304718.654822667</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-3418502.917122667</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-3170345.839022667</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-3187845.839022667</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-2870784.049222667</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-3126447.600522667</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-3118682.922822667</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-3118682.922822667</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-3118682.922822667</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-3118682.922822667</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-3636663.725122667</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-3775924.725122667</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-3691484.725122667</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-3811485.191222667</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-3811485.191222667</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-3763948.265922667</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-3787822.582922666</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-3203488.829822666</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-3200580.105022667</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-3200802.105022667</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-3203024.105022667</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-3203024.105022667</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-3203024.105022667</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-3202359.498622667</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-3202359.498622667</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-3202359.498622667</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-3202536.498622667</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-3202758.498622667</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-3161320.278022666</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-3181545.076322666</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-3207209.839422666</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-3206765.839422666</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-3208987.839422666</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-3208765.839422666</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-3209209.839422666</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-3203354.845322667</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-3203354.845322667</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-3200464.845322667</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-3200464.845322667</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-3200464.845322667</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-3147717.014322667</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-3147717.014322667</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-3218782.011122667</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-4019521.375022667</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-3830899.997322666</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-3830899.997322666</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-3830899.997322666</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-3830899.997322666</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-3830899.997322666</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-3834866.997322666</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-3834866.997322666</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-4350662.033522666</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-4351862.033522666</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-4276729.734822668</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-3981905.329522668</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-3981905.329522668</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-3984272.329522668</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-3982036.329522668</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-3982036.329522668</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-3982036.329522668</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-3982036.329522668</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-3982516.329522668</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-3982166.329522668</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-3983454.329522668</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-3990376.329522668</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-3990376.329522668</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-4050027.814122668</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-4023287.096122669</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-4092067.976522669</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-4222456.637322669</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-4222456.637322669</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-5240320.202822668</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-5239619.202822668</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-5235973.861722669</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-5236861.861722669</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-5236861.861722669</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-5236639.861722669</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-5239739.861722669</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-5395446.323122669</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-5395276.323122669</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-9054884.723622669</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-18544487.05543087</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-18544487.05543087</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-18544487.05543087</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-18544310.05543087</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-18544560.05543087</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-18545004.05543087</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-18546615.38403087</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-18582449.14813087</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-18604098.53013087</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-18603926.53013087</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-18603749.53013087</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-18603749.53013087</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-18603572.53013087</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-18603749.53013087</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-18625315.57713087</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-18625315.57713087</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-18625315.57713087</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-18725315.57713087</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-18775492.57713087</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-18781669.57713087</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-18781669.57713087</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-19970608.41893087</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-20313327.70383087</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-20243985.63643087</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-19948313.20503087</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-19648313.20503087</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-19647815.53023086</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-19747815.53023086</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-19040729.42103086</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-19156378.58423086</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-19156378.58423086</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-19506309.59214197</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-19485173.65064197</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-19483885.65064197</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-19696799.69664197</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-19414346.73734197</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-19546940.84374197</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-19893433.90354197</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-19872338.90564197</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-20218300.96554197</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-20255278.37794197</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-20352834.63664197</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-20352657.63664197</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-20352657.63664197</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-20352657.63664197</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-20119154.35594197</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-20118954.35594197</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-20117977.35594197</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-20117977.35594197</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-20118177.35594197</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-20118000.35594197</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-20118000.35594197</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-20120444.35594197</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-20122936.42264197</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-20122936.42264197</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-20124047.42264197</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-20122847.42264197</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-20127617.20064197</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-20142617.20064197</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-20142147.20064197</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-20140947.20064197</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-20140947.20064197</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-20141124.20064197</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-20295432.43544197</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-20295432.43544197</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-20295432.43544197</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-20297876.43544197</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-19379685.55394197</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-19379685.55394197</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-19379685.55394197</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-19387751.92944197</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-19271502.50834197</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
